--- a/profiles/import/2_Campusbereich.xlsx
+++ b/profiles/import/2_Campusbereich.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Universitätszentrum</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>REIHENFOLGE</t>
+  </si>
+  <si>
+    <t>Kerckhoff</t>
   </si>
 </sst>
 </file>
@@ -384,9 +387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -568,6 +573,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>574990</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>574989</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
